--- a/rnaSample/rnaSample_J.PLAGGENBERG_09.11.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_09.11.19.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/rnaSample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B57239-3A24-E248-BF04-BD41ADEE9D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="8960" windowWidth="21440" windowHeight="7660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -76,22 +85,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -101,48 +112,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -332,20 +346,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +416,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -405,7 +424,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="3">
-        <v>1.0</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -414,7 +433,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
@@ -449,7 +468,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -457,7 +476,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>2.0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -466,7 +485,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -501,7 +520,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -509,7 +528,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3">
-        <v>3.0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -518,7 +537,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>15</v>
@@ -553,7 +572,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -561,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="3">
-        <v>4.0</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -570,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>15</v>
@@ -605,7 +624,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -613,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="3">
-        <v>5.0</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
@@ -622,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
@@ -657,7 +676,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -665,7 +684,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>6.0</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -674,7 +693,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
@@ -709,7 +728,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -717,7 +736,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="3">
-        <v>7.0</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
@@ -726,7 +745,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>15</v>
@@ -761,7 +780,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -769,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>8.0</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
@@ -778,7 +797,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
@@ -814,6 +833,6 @@
       <c r="Z9" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/rnaSample/rnaSample_J.PLAGGENBERG_09.11.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_09.11.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -84,7 +84,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -106,6 +106,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -163,7 +169,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,15 +182,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -211,8 +221,8 @@
   </sheetPr>
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -227,7 +237,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -273,37 +283,40 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="b">
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6" t="b">
+      <c r="K2" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -325,37 +338,40 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="b">
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="6" t="b">
+      <c r="K3" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -377,37 +393,40 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="b">
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="6" t="b">
+      <c r="K4" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -429,37 +448,40 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="b">
+      <c r="F5" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="6" t="b">
+      <c r="K5" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -481,37 +503,40 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="b">
+      <c r="F6" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="6" t="b">
+      <c r="K6" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -533,37 +558,40 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="b">
+      <c r="F7" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="6" t="b">
+      <c r="K7" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -585,37 +613,40 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="b">
+      <c r="F8" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="6" t="b">
+      <c r="K8" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -637,37 +668,40 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="b">
+      <c r="F9" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="6" t="b">
+      <c r="K9" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">

--- a/rnaSample/rnaSample_J.PLAGGENBERG_09.11.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_09.11.19.xlsx
@@ -112,6 +112,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -169,7 +170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -195,6 +196,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -222,10 +227,10 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.5"/>
   </cols>
@@ -304,18 +309,17 @@
       <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="n">
+      <c r="H2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="7" t="n">
+      <c r="K2" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -359,18 +363,17 @@
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="n">
+      <c r="H3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="7" t="n">
+      <c r="K3" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -414,18 +417,17 @@
       <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="n">
+      <c r="H4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K4" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -469,18 +471,17 @@
       <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K5" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -524,18 +525,17 @@
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="n">
+      <c r="H6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="7" t="n">
+      <c r="K6" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -579,18 +579,17 @@
       <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="n">
+      <c r="H7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="K7" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -634,18 +633,17 @@
       <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
+      <c r="H8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="7" t="n">
+      <c r="K8" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -689,18 +687,17 @@
       <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="K9" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
